--- a/eulixplatform-registry/src/main/resources/profiles/community/template/boxTemplateV2.xlsx
+++ b/eulixplatform-registry/src/main/resources/profiles/community/template/boxTemplateV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25122" windowHeight="14168"/>
+    <workbookView windowWidth="22500" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="检测记录" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>MAC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <t>设备</t>
+  </si>
+  <si>
+    <t>HW_ID</t>
+  </si>
+  <si>
+    <t>BOM_ID</t>
+  </si>
+  <si>
+    <t>RJ45 MAC</t>
   </si>
   <si>
     <t>CPU数</t>
@@ -37,84 +59,59 @@
     <t>内存（M）</t>
   </si>
   <si>
-    <t>Wi-Fi</t>
-  </si>
-  <si>
-    <t>蓝牙</t>
-  </si>
-  <si>
-    <t>USB</t>
-  </si>
-  <si>
-    <t>操作用户</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>授权类型</t>
-  </si>
-  <si>
-    <t>盒子公钥</t>
-  </si>
-  <si>
-    <t>192.168.10.7</t>
-  </si>
-  <si>
-    <t>Raspberry Pi 4 Model B Rev 1.4</t>
-  </si>
-  <si>
-    <t>e4:5f:01:3a:a3:5e</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>100000003ab4ad41</t>
-  </si>
-  <si>
-    <t>1852</t>
-  </si>
-  <si>
-    <t>ba:af:1a:ba:95:ed</t>
-  </si>
-  <si>
-    <t>state: 1
-id: B8:27:EB:1E:07:EB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2021-12-23 09:42:44</t>
-  </si>
-  <si>
-    <t>box_uuid</t>
-  </si>
-  <si>
-    <t>192.168.10.6</t>
-  </si>
-  <si>
-    <t>e4:5f:01:3a:a3:0d</t>
-  </si>
-  <si>
-    <t>10000000f659defu</t>
-  </si>
-  <si>
-    <t>ae:60:60:c7:0d:f2</t>
-  </si>
-  <si>
-    <t>state: 1
-id: B8:27:EB:F3:74:51</t>
-  </si>
-  <si>
-    <t>2021-12-23 09:39:51</t>
-  </si>
-  <si>
-    <t>box_pub_key</t>
+    <t>Wi-Fi MAC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> MAC</t>
+    </r>
+  </si>
+  <si>
+    <t>公钥</t>
+  </si>
+  <si>
+    <t>信息获取时间</t>
+  </si>
+  <si>
+    <t>02022C000001XXXX</t>
+  </si>
+  <si>
+    <t>AS （2nd Generation）</t>
+  </si>
+  <si>
+    <t>HW_ID0</t>
+  </si>
+  <si>
+    <t>BOM_ID0</t>
+  </si>
+  <si>
+    <t>E4:5F:01:3A:A3:5E</t>
+  </si>
+  <si>
+    <t>3900M</t>
+  </si>
+  <si>
+    <t>B8:27:EB:1E:07:EB</t>
+  </si>
+  <si>
+    <t>2021-12-24 14:35:01</t>
   </si>
 </sst>
 </file>
@@ -127,7 +124,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +140,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -293,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +354,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,12 +545,96 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,10 +741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,140 +753,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1093,153 +1248,111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="15.8198198198198" customWidth="1"/>
-    <col min="3" max="3" width="13.4504504504505" customWidth="1"/>
-    <col min="4" max="4" width="13.1801801801802" customWidth="1"/>
-    <col min="6" max="6" width="14.6306306306306" customWidth="1"/>
-    <col min="7" max="7" width="12.6306306306306" customWidth="1"/>
-    <col min="8" max="8" width="14.7297297297297" customWidth="1"/>
+    <col min="2" max="2" width="15.8230088495575" customWidth="1"/>
+    <col min="3" max="3" width="13.4513274336283" customWidth="1"/>
+    <col min="4" max="4" width="13.1769911504425" customWidth="1"/>
+    <col min="6" max="6" width="14.6283185840708" customWidth="1"/>
+    <col min="7" max="7" width="12.6283185840708" customWidth="1"/>
+    <col min="8" max="8" width="14.7256637168142" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" ht="41.65" spans="1:14">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
-    <row r="2" ht="56.55" spans="1:14">
-      <c r="A2" s="2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="56.55" spans="1:14">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
+    <row r="3" ht="13.85" spans="1:14">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
